--- a/Data/Classified citations to the JSS article 0.1.xlsx
+++ b/Data/Classified citations to the JSS article 0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nauman/Dropbox/Apps/Overleaf/ESEM 2020 - Reflections paper on the innovation measurement article/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98CE535-7936-D348-9865-41C8E84DE8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17E3746-151F-FA4A-8F28-436406EBA6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="27520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Untitled" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Untitled!$A$1:$BB$235</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$17:$C$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$17:$D$25</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$C$16</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$17:$C$25</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$D$16</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$D$17:$D$25</definedName>
     <definedName name="Z_2FF8B671_B838_4148_AF7D_C29436389412_.wvu.FilterData" localSheetId="0" hidden="1">Untitled!$A$1:$AG$995</definedName>
     <definedName name="Z_450D3A0F_B7B0_4FF7_8C4D_CD665460010A_.wvu.FilterData" localSheetId="0" hidden="1">Untitled!$A$1:$BB$235</definedName>
     <definedName name="Z_8C9EBBE4_615E_4AB8_84C1_2CEE51DA29D2_.wvu.FilterData" localSheetId="0" hidden="1">Untitled!$A$1:$AG$995</definedName>
@@ -34,11 +26,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{D6FF9A72-8F60-4532-892B-EE0BC80D180A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{D6ED6EB0-34C5-4025-80FA-EEEF61011080}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{2FF8B671-B838-4148-AF7D-C29436389412}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 5" guid="{450D3A0F-B7B0-4FF7-8C4D-CD665460010A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8C9EBBE4-615E-4AB8-84C1-2CEE51DA29D2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 5" guid="{450D3A0F-B7B0-4FF7-8C4D-CD665460010A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{2FF8B671-B838-4148-AF7D-C29436389412}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{D6ED6EB0-34C5-4025-80FA-EEEF61011080}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{D6FF9A72-8F60-4532-892B-EE0BC80D180A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5676,9 +5668,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BB998"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA58" sqref="AA58:AA234"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4:T235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -6005,17 +5997,17 @@
       <c r="BA3" s="10"/>
       <c r="BB3" s="10"/>
     </row>
-    <row r="4" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:54" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6106,17 +6098,17 @@
       <c r="BA4" s="10"/>
       <c r="BB4" s="10"/>
     </row>
-    <row r="5" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:54" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6428,11 +6420,11 @@
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -6534,11 +6526,11 @@
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6815,11 +6807,11 @@
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6905,11 +6897,11 @@
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7005,11 +6997,11 @@
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -7378,7 +7370,7 @@
       <c r="BA17" s="10"/>
       <c r="BB17" s="10"/>
     </row>
-    <row r="18" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:54" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -7686,11 +7678,11 @@
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -7869,11 +7861,11 @@
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -7959,11 +7951,11 @@
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -8739,11 +8731,11 @@
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
@@ -8839,11 +8831,11 @@
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -8942,11 +8934,11 @@
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
@@ -9145,17 +9137,17 @@
       <c r="BA35" s="13"/>
       <c r="BB35" s="13"/>
     </row>
-    <row r="36" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:54" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -9258,11 +9250,11 @@
       </c>
       <c r="B37" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="8">
         <v>0</v>
@@ -9336,11 +9328,11 @@
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
@@ -9442,11 +9434,11 @@
       </c>
       <c r="B39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="8">
         <v>0</v>
@@ -9532,11 +9524,11 @@
       </c>
       <c r="B40" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="8">
         <v>0</v>
@@ -9733,11 +9725,11 @@
       </c>
       <c r="B42" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C42" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
@@ -9839,11 +9831,11 @@
       </c>
       <c r="B43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C43" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
@@ -9936,11 +9928,11 @@
       </c>
       <c r="B44" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C44" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="8">
         <v>0</v>
@@ -10042,11 +10034,11 @@
       </c>
       <c r="B45" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C45" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
@@ -10425,11 +10417,11 @@
       </c>
       <c r="B49" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C49" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="8">
         <v>0</v>
@@ -10608,11 +10600,11 @@
       </c>
       <c r="B51" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -10913,7 +10905,7 @@
       <c r="BA53" s="10"/>
       <c r="BB53" s="10"/>
     </row>
-    <row r="54" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:54" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>31</v>
       </c>
@@ -11020,7 +11012,7 @@
       <c r="BA54" s="13"/>
       <c r="BB54" s="13"/>
     </row>
-    <row r="55" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:54" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>31</v>
       </c>
@@ -11239,7 +11231,7 @@
       <c r="BA56" s="11"/>
       <c r="BB56" s="11"/>
     </row>
-    <row r="57" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" spans="1:54" ht="15.75" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>31</v>
       </c>
@@ -11355,11 +11347,11 @@
       </c>
       <c r="B58" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C58" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -11459,7 +11451,7 @@
       <c r="BA58" s="11"/>
       <c r="BB58" s="11"/>
     </row>
-    <row r="59" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" spans="1:54" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>31</v>
       </c>
@@ -11572,11 +11564,11 @@
       </c>
       <c r="B60" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="8">
         <v>1</v>
@@ -11776,11 +11768,11 @@
       </c>
       <c r="B62" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C62" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="8">
         <v>1</v>
@@ -12088,11 +12080,11 @@
       </c>
       <c r="B65" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C65" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
@@ -12285,7 +12277,7 @@
       <c r="BA66" s="13"/>
       <c r="BB66" s="13"/>
     </row>
-    <row r="67" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" spans="1:54" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>31</v>
       </c>
@@ -12398,11 +12390,11 @@
       </c>
       <c r="B68" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C68" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="8">
         <v>2</v>
@@ -12504,7 +12496,7 @@
       <c r="BA68" s="13"/>
       <c r="BB68" s="13"/>
     </row>
-    <row r="69" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" spans="1:54" ht="15.75" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>31</v>
       </c>
@@ -12614,17 +12606,17 @@
       <c r="BA69" s="11"/>
       <c r="BB69" s="11"/>
     </row>
-    <row r="70" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" spans="1:54" ht="15.75" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B70" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C70" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="8">
         <v>2</v>
@@ -13161,17 +13153,17 @@
       <c r="BA74" s="11"/>
       <c r="BB74" s="11"/>
     </row>
-    <row r="75" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" spans="1:54" ht="15.75" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B75" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C75" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="8">
         <v>3</v>
@@ -13370,11 +13362,11 @@
       </c>
       <c r="B77" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C77" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="8">
         <v>5</v>
@@ -13482,11 +13474,11 @@
       </c>
       <c r="B78" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C78" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="8">
         <v>6</v>
@@ -14034,11 +14026,11 @@
       </c>
       <c r="B83" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C83" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="8">
         <v>13</v>
@@ -14236,17 +14228,17 @@
       <c r="BA84" s="11"/>
       <c r="BB84" s="11"/>
     </row>
-    <row r="85" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" spans="1:54" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B85" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C85" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="8">
         <v>15</v>
@@ -14346,7 +14338,7 @@
       <c r="BA85" s="13"/>
       <c r="BB85" s="13"/>
     </row>
-    <row r="86" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" spans="1:54" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>31</v>
       </c>
@@ -14456,17 +14448,17 @@
       <c r="BA86" s="11"/>
       <c r="BB86" s="11"/>
     </row>
-    <row r="87" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" spans="1:54" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C87" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="8">
         <v>22</v>
@@ -14791,11 +14783,11 @@
       </c>
       <c r="B90" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C90" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" s="8">
         <v>0</v>
@@ -14935,11 +14927,11 @@
       </c>
       <c r="B92" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C92" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="8">
         <v>0</v>
@@ -15085,11 +15077,11 @@
       </c>
       <c r="B94" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C94" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="8">
         <v>0</v>
@@ -15232,11 +15224,11 @@
       </c>
       <c r="B96" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C96" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="8">
         <v>0</v>
@@ -15298,11 +15290,11 @@
       </c>
       <c r="B97" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C97" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="8">
         <v>0</v>
@@ -15370,11 +15362,11 @@
       </c>
       <c r="B98" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C98" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" s="8">
         <v>0</v>
@@ -15511,11 +15503,11 @@
       </c>
       <c r="B100" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C100" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="8">
         <v>0</v>
@@ -15580,11 +15572,11 @@
       </c>
       <c r="B101" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C101" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="8">
         <v>0</v>
@@ -15724,11 +15716,11 @@
       </c>
       <c r="B103" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C103" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="8">
         <v>0</v>
@@ -16015,11 +16007,11 @@
       </c>
       <c r="B107" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C107" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="8">
         <v>0</v>
@@ -16087,11 +16079,11 @@
       </c>
       <c r="B108" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C108" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" s="8">
         <v>0</v>
@@ -16306,11 +16298,11 @@
       </c>
       <c r="B111" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C111" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" s="8">
         <v>1</v>
@@ -16381,11 +16373,11 @@
       </c>
       <c r="B112" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C112" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="8">
         <v>0</v>
@@ -16984,11 +16976,11 @@
       </c>
       <c r="B120" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C120" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="8">
         <v>0</v>
@@ -17059,11 +17051,11 @@
       </c>
       <c r="B121" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C121" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="8">
         <v>0</v>
@@ -17128,11 +17120,11 @@
       </c>
       <c r="B122" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C122" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" s="8">
         <v>0</v>
@@ -17203,11 +17195,11 @@
       </c>
       <c r="B123" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C123" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" s="8">
         <v>0</v>
@@ -17344,11 +17336,11 @@
       </c>
       <c r="B125" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C125" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" s="8">
         <v>0</v>
@@ -17416,11 +17408,11 @@
       </c>
       <c r="B126" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C126" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" s="8">
         <v>0</v>
@@ -17785,11 +17777,11 @@
       </c>
       <c r="B131" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C131" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="8">
         <v>0</v>
@@ -18076,11 +18068,11 @@
       </c>
       <c r="B135" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C135" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="8">
         <v>0</v>
@@ -18148,11 +18140,11 @@
       </c>
       <c r="B136" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C136" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" s="8">
         <v>0</v>
@@ -18298,11 +18290,11 @@
       </c>
       <c r="B138" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C138" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="8">
         <v>0</v>
@@ -18451,11 +18443,11 @@
       </c>
       <c r="B140" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C140" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" s="8">
         <v>0</v>
@@ -18669,17 +18661,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="143" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="143" spans="1:54" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B143" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C143" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" s="8">
         <v>0</v>
@@ -18891,11 +18883,11 @@
       </c>
       <c r="B145" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C145" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" s="8">
         <v>1</v>
@@ -19184,7 +19176,7 @@
       <c r="BA147" s="23"/>
       <c r="BB147" s="23"/>
     </row>
-    <row r="148" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="148" spans="1:54" ht="15.75" customHeight="1">
       <c r="A148" s="8" t="s">
         <v>557</v>
       </c>
@@ -19295,17 +19287,17 @@
       <c r="BA148" s="25"/>
       <c r="BB148" s="25"/>
     </row>
-    <row r="149" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="149" spans="1:54" ht="15.75" customHeight="1">
       <c r="A149" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B149" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C149" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" s="8">
         <v>0</v>
@@ -19409,11 +19401,11 @@
       </c>
       <c r="B150" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C150" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" s="8">
         <v>0</v>
@@ -19511,7 +19503,7 @@
       <c r="BA150" s="25"/>
       <c r="BB150" s="25"/>
     </row>
-    <row r="151" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="151" spans="1:54" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
         <v>557</v>
       </c>
@@ -19619,17 +19611,17 @@
       <c r="BA151" s="25"/>
       <c r="BB151" s="25"/>
     </row>
-    <row r="152" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="152" spans="1:54" ht="15.75" customHeight="1">
       <c r="A152" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B152" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C152" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" s="8">
         <v>0</v>
@@ -19733,11 +19725,11 @@
       </c>
       <c r="B153" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C153" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" s="8">
         <v>0</v>
@@ -19830,11 +19822,11 @@
       </c>
       <c r="B154" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C154" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" s="8">
         <v>0</v>
@@ -19928,11 +19920,11 @@
       </c>
       <c r="B155" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C155" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="8">
         <v>0</v>
@@ -20036,11 +20028,11 @@
       </c>
       <c r="B156" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C156" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="8">
         <v>0</v>
@@ -20138,17 +20130,17 @@
       <c r="BA156" s="25"/>
       <c r="BB156" s="25"/>
     </row>
-    <row r="157" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="157" spans="1:54" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B157" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C157" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" s="8">
         <v>0</v>
@@ -20355,11 +20347,11 @@
       </c>
       <c r="B159" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C159" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" s="8">
         <v>0</v>
@@ -20679,7 +20671,7 @@
       <c r="BA161" s="25"/>
       <c r="BB161" s="25"/>
     </row>
-    <row r="162" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="162" spans="1:54" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
         <v>557</v>
       </c>
@@ -21000,11 +20992,11 @@
       </c>
       <c r="B165" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C165" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" s="8">
         <v>0</v>
@@ -21092,11 +21084,11 @@
       </c>
       <c r="B166" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C166" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" s="8">
         <v>0</v>
@@ -21194,17 +21186,17 @@
       <c r="BA166" s="25"/>
       <c r="BB166" s="25"/>
     </row>
-    <row r="167" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="167" spans="1:54" ht="15.75" customHeight="1">
       <c r="A167" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B167" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C167" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" s="8">
         <v>0</v>
@@ -21302,17 +21294,17 @@
       <c r="BA167" s="25"/>
       <c r="BB167" s="25"/>
     </row>
-    <row r="168" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="168" spans="1:54" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B168" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C168" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" s="8">
         <v>0</v>
@@ -21416,11 +21408,11 @@
       </c>
       <c r="B169" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C169" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="8">
         <v>0</v>
@@ -21527,11 +21519,11 @@
       </c>
       <c r="B170" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C170" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" s="8">
         <v>0</v>
@@ -21638,11 +21630,11 @@
       </c>
       <c r="B171" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C171" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="8">
         <v>0</v>
@@ -21737,11 +21729,11 @@
       </c>
       <c r="B172" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C172" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="8">
         <v>0</v>
@@ -21836,11 +21828,11 @@
       </c>
       <c r="B173" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C173" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173" s="8">
         <v>0</v>
@@ -22136,11 +22128,11 @@
       </c>
       <c r="B176" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C176" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" s="8">
         <v>0</v>
@@ -22340,11 +22332,11 @@
       </c>
       <c r="B178" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C178" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" s="8">
         <v>0</v>
@@ -22430,17 +22422,17 @@
       <c r="BA178" s="25"/>
       <c r="BB178" s="25"/>
     </row>
-    <row r="179" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="179" spans="1:54" ht="15.75" customHeight="1">
       <c r="A179" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B179" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C179" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" s="8">
         <v>0</v>
@@ -22544,11 +22536,11 @@
       </c>
       <c r="B180" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C180" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="8">
         <v>0</v>
@@ -22760,11 +22752,11 @@
       </c>
       <c r="B182" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C182" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" s="8">
         <v>0</v>
@@ -22859,11 +22851,11 @@
       </c>
       <c r="B183" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C183" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" s="8">
         <v>0</v>
@@ -23053,11 +23045,11 @@
       </c>
       <c r="B185" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C185" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" s="8">
         <v>0</v>
@@ -23155,11 +23147,11 @@
       </c>
       <c r="B186" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C186" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" s="8">
         <v>0</v>
@@ -23365,11 +23357,11 @@
       </c>
       <c r="B188" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C188" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" s="8">
         <v>0</v>
@@ -23464,11 +23456,11 @@
       </c>
       <c r="B189" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C189" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" s="8">
         <v>0</v>
@@ -23761,11 +23753,11 @@
       </c>
       <c r="B192" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C192" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" s="8">
         <v>0</v>
@@ -24063,17 +24055,17 @@
       <c r="BA194" s="25"/>
       <c r="BB194" s="25"/>
     </row>
-    <row r="195" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="195" spans="1:54" ht="15.75" customHeight="1">
       <c r="A195" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B195" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C195" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" s="8">
         <v>1</v>
@@ -24180,11 +24172,11 @@
       </c>
       <c r="B196" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C196" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" s="8">
         <v>1</v>
@@ -24285,7 +24277,7 @@
       <c r="BA196" s="25"/>
       <c r="BB196" s="25"/>
     </row>
-    <row r="197" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="197" spans="1:54" ht="15.75" customHeight="1">
       <c r="A197" s="8" t="s">
         <v>557</v>
       </c>
@@ -24402,11 +24394,11 @@
       </c>
       <c r="B198" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C198" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" s="8">
         <v>2</v>
@@ -25271,11 +25263,11 @@
       </c>
       <c r="B206" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C206" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" s="8">
         <v>3</v>
@@ -25727,11 +25719,11 @@
       </c>
       <c r="B210" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C210" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="8">
         <v>3</v>
@@ -25839,11 +25831,11 @@
       </c>
       <c r="B211" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C211" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" s="8">
         <v>3</v>
@@ -25953,11 +25945,11 @@
       </c>
       <c r="B212" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C212" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212" s="8">
         <v>3</v>
@@ -26048,17 +26040,17 @@
       <c r="BA212" s="25"/>
       <c r="BB212" s="25"/>
     </row>
-    <row r="213" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="213" spans="1:54" ht="15.75" customHeight="1">
       <c r="A213" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B213" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C213" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="8">
         <v>5</v>
@@ -26168,11 +26160,11 @@
       </c>
       <c r="B214" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C214" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214" s="8">
         <v>4</v>
@@ -26273,11 +26265,11 @@
       </c>
       <c r="B215" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C215" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215" s="8">
         <v>4</v>
@@ -26378,17 +26370,17 @@
       <c r="BA215" s="25"/>
       <c r="BB215" s="25"/>
     </row>
-    <row r="216" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="216" spans="1:54" ht="15.75" customHeight="1">
       <c r="A216" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B216" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C216" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216" s="8">
         <v>4</v>
@@ -26492,7 +26484,7 @@
       <c r="BA216" s="25"/>
       <c r="BB216" s="25"/>
     </row>
-    <row r="217" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="217" spans="1:54" ht="15.75" customHeight="1">
       <c r="A217" s="8" t="s">
         <v>557</v>
       </c>
@@ -26609,11 +26601,11 @@
       </c>
       <c r="B218" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C218" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" s="8">
         <v>9</v>
@@ -26831,17 +26823,17 @@
       <c r="BA219" s="25"/>
       <c r="BB219" s="25"/>
     </row>
-    <row r="220" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="220" spans="1:54" ht="15.75" customHeight="1">
       <c r="A220" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B220" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C220" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220" s="8">
         <v>8</v>
@@ -27281,11 +27273,11 @@
       </c>
       <c r="B224" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C224" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224" s="8">
         <v>13</v>
@@ -27392,11 +27384,11 @@
       </c>
       <c r="B225" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C225" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" s="8">
         <v>14</v>
@@ -27497,17 +27489,17 @@
       <c r="BA225" s="25"/>
       <c r="BB225" s="25"/>
     </row>
-    <row r="226" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="226" spans="1:54" ht="15.75" customHeight="1">
       <c r="A226" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B226" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C226" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226" s="8">
         <v>14</v>
@@ -27614,11 +27606,11 @@
       </c>
       <c r="B227" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C227" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227" s="8">
         <v>19</v>
@@ -27725,11 +27717,11 @@
       </c>
       <c r="B228" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C228" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228" s="8">
         <v>23</v>
@@ -27833,7 +27825,7 @@
       <c r="BA228" s="25"/>
       <c r="BB228" s="25"/>
     </row>
-    <row r="229" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="229" spans="1:54" ht="15.75" customHeight="1">
       <c r="A229" s="8" t="s">
         <v>557</v>
       </c>
@@ -28058,17 +28050,17 @@
       <c r="BA230" s="25"/>
       <c r="BB230" s="25"/>
     </row>
-    <row r="231" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="231" spans="1:54" ht="15.75" customHeight="1">
       <c r="A231" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B231" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C231" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231" s="8">
         <v>33</v>
@@ -28172,17 +28164,17 @@
       <c r="BA231" s="25"/>
       <c r="BB231" s="25"/>
     </row>
-    <row r="232" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="232" spans="1:54" ht="15.75" customHeight="1">
       <c r="A232" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B232" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C232" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232" s="8">
         <v>44</v>
@@ -28292,11 +28284,11 @@
       </c>
       <c r="B233" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C233" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233" s="8">
         <v>49</v>
@@ -28406,11 +28398,11 @@
       </c>
       <c r="B234" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HED</v>
+        <v>NAL</v>
       </c>
       <c r="C234" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234" s="8">
         <v>50</v>
@@ -28511,17 +28503,17 @@
       <c r="BA234" s="25"/>
       <c r="BB234" s="25"/>
     </row>
-    <row r="235" spans="1:54" ht="15.75" hidden="1" customHeight="1">
+    <row r="235" spans="1:54" ht="15.75" customHeight="1">
       <c r="A235" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B235" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NAL</v>
+        <v>HED</v>
       </c>
       <c r="C235" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235" s="8">
         <v>62</v>
@@ -55227,13 +55219,7 @@
     <row r="998" spans="22:54" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:BB235" xr:uid="{39180886-0DB0-7E44-890D-0112D186B2C6}">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="Include"/>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="28">
       <filters>
         <filter val="Yes"/>
       </filters>
@@ -55245,13 +55231,19 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{8C9EBBE4-615E-4AB8-84C1-2CEE51DA29D2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D6FF9A72-8F60-4532-892B-EE0BC80D180A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AG995" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:AF995" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="NAL"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
-    <customSheetView guid="{2FF8B671-B838-4148-AF7D-C29436389412}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{450D3A0F-B7B0-4FF7-8C4D-CD665460010A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AG995" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:BB235" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{D6ED6EB0-34C5-4025-80FA-EEEF61011080}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55275,19 +55267,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{450D3A0F-B7B0-4FF7-8C4D-CD665460010A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2FF8B671-B838-4148-AF7D-C29436389412}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:BB235" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:AG995" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{D6FF9A72-8F60-4532-892B-EE0BC80D180A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8C9EBBE4-615E-4AB8-84C1-2CEE51DA29D2}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AF995" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="NAL"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="A1:AG995" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="J1:J235">
@@ -55308,7 +55294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B869BA12-B939-0247-88B1-96293E5F1A09}">
   <dimension ref="C16:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
